--- a/data/prs_inventoried.xlsx
+++ b/data/prs_inventoried.xlsx
@@ -10,7 +10,7 @@
     <sheet name="behavior" sheetId="1" r:id="rId1"/>
     <sheet name="lifestyle" sheetId="2" r:id="rId2"/>
     <sheet name="health" sheetId="3" r:id="rId3"/>
-    <sheet name="congenital" sheetId="4" r:id="rId4"/>
+    <sheet name="misc_long_term" sheetId="4" r:id="rId4"/>
     <sheet name="mental" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2048,7 +2048,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A102"/>
+  <dimension ref="A1:A96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2733,670 +2733,628 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GCST009722</t>
+          <t>GCST004901</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GCST008373</t>
+          <t>GCST007320</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GCST004901</t>
+          <t>GA3647</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GCST007320</t>
+          <t>GCST010012</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GA3647</t>
+          <t>GCST005902</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GCST010012</t>
+          <t>GCST010015</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GCST005902</t>
+          <t>GCST005903</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GCST010015</t>
+          <t>GCST005904</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GCST005903</t>
+          <t>GA3997</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GCST005904</t>
+          <t>GCST006948</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GA3997</t>
+          <t>GCST006952</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GCST006948</t>
+          <t>GCST006941</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GCST006952</t>
+          <t>GCST006924</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GCST006941</t>
+          <t>GA3737</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GCST006924</t>
+          <t>GCST001837</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GA3737</t>
+          <t>GA4276</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GCST009520</t>
+          <t>GA3761</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GCST009521</t>
+          <t>GCST007340</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GCST001837</t>
+          <t>GA3405</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GA4276</t>
+          <t>GA56</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GA3761</t>
+          <t>GA53</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GCST007340</t>
+          <t>GA4159</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GA3405</t>
+          <t>GA4161</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GA56</t>
+          <t>GA4165</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GA53</t>
+          <t>GA3298</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GA4159</t>
+          <t>GA3300</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GA4161</t>
+          <t>GA3771</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GA4165</t>
+          <t>GA3374</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GA3298</t>
+          <t>GA3381</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GA3300</t>
+          <t>GA3383</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GA3771</t>
+          <t>GA3391</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GA3374</t>
+          <t>GA3772</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GA3381</t>
+          <t>GA3394</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GA3383</t>
+          <t>GA4002</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GA3391</t>
+          <t>GA3427</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GA3772</t>
+          <t>GA3415</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GA3394</t>
+          <t>GA3767</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GA4002</t>
+          <t>GA3420</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GA3427</t>
+          <t>GA3421</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>GA3415</t>
+          <t>GA3422</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GA3767</t>
+          <t>GA3423</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GA3420</t>
+          <t>GA3432</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GA3421</t>
+          <t>GA3433</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GA3422</t>
+          <t>phen70</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GA3423</t>
+          <t>GA3727</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GA3432</t>
+          <t>GA3636</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GA3433</t>
+          <t>GA3532</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>phen70</t>
+          <t>GA3533</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>GA3727</t>
+          <t>GA3203</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>GA3636</t>
+          <t>GA3603</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GA3532</t>
+          <t>GA209</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GA3533</t>
+          <t>GCST005920</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>GA3543</t>
+          <t>GCST006250</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>GA3203</t>
+          <t>GA3760</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GA3603</t>
+          <t>GA3991</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GA209</t>
+          <t>GA3769</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GCST005920</t>
+          <t>GA3768</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GCST006250</t>
+          <t>GCST010013</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GA3760</t>
+          <t>GA3736</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GA3667</t>
+          <t>GA3734</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GA3991</t>
+          <t>GA3735</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>GA3769</t>
+          <t>GA3733</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GA3768</t>
+          <t>GA3732</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GCST010013</t>
+          <t>GCST010009</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GA3736</t>
+          <t>GA3743</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GA3734</t>
+          <t>GA3729</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GA3735</t>
+          <t>GA3755</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GA3733</t>
+          <t>GA3756</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>GA3732</t>
+          <t>GA3395</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GCST010009</t>
+          <t>GA3759</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>GA3743</t>
+          <t>GA3742</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>GA3729</t>
+          <t>GA3730</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>GA3755</t>
+          <t>GCST007708</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>GA3756</t>
+          <t>GA3731</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GA3395</t>
+          <t>GA3770</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>GA3759</t>
+          <t>GA3758</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>GA3742</t>
+          <t>GCST010014</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GA3730</t>
+          <t>GA3765</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GCST007708</t>
+          <t>GCST009981</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GA3731</t>
+          <t>GA3728</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GA3770</t>
+          <t>GA3740</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GA3758</t>
+          <t>GA3752</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>GCST010014</t>
+          <t>GA3757</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GA3765</t>
+          <t>GCST009980</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GCST009981</t>
+          <t>GCST009983</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GA3728</t>
+          <t>phen30</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>GA3740</t>
+          <t>GA3750</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GA3752</t>
+          <t>GA3999</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>GA3757</t>
+          <t>GA3994</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
-        <is>
-          <t>GCST009980</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>GCST009983</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>phen30</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>GA3750</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>GA3999</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>GA3994</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
         <is>
           <t>GA3293</t>
         </is>
